--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_34.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_34.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kenichi Aoki</t>
+          <t>Kazuya Inoue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
